--- a/data/trans_orig/P1414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D0586E-D41C-451F-A97D-E06394A464C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73844159-4190-40A5-81F8-6B71CACFAEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B11711F8-FAAE-49C1-B6D6-170B6E2640D0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FB264B3-FD44-4AD3-95BB-1DC0FD587494}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="291">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -136,739 +136,781 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>97,3%</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5042A6B-F87E-48FD-BE23-A5E24A308758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50725D7A-CDAE-494D-9ED6-93C9E5AC27F3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1592,10 +1634,10 @@
         <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,10 +1652,10 @@
         <v>586633</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1625,13 +1667,13 @@
         <v>565502</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>1083</v>
@@ -1640,13 +1682,13 @@
         <v>1152136</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,7 +1744,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1714,13 +1756,13 @@
         <v>3256</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -1729,13 +1771,13 @@
         <v>20806</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1744,13 +1786,13 @@
         <v>24062</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1807,13 @@
         <v>1014691</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
@@ -1780,13 +1822,13 @@
         <v>1008167</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1852</v>
@@ -1795,13 +1837,13 @@
         <v>2022858</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,7 +1899,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1869,13 +1911,13 @@
         <v>1041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1884,13 +1926,13 @@
         <v>16519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -1899,13 +1941,13 @@
         <v>17560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,10 +1962,10 @@
         <v>756582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1935,13 +1977,13 @@
         <v>760655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -1950,13 +1992,13 @@
         <v>1517237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,7 +2054,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2024,13 +2066,13 @@
         <v>2017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2039,13 +2081,13 @@
         <v>31559</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -2054,13 +2096,13 @@
         <v>33575</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,10 +2117,10 @@
         <v>945722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -2090,13 +2132,13 @@
         <v>1019375</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1880</v>
@@ -2105,13 +2147,13 @@
         <v>1965099</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2221,13 @@
         <v>7384</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -2194,13 +2236,13 @@
         <v>92791</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2209,13 +2251,13 @@
         <v>100175</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2272,13 @@
         <v>3419395</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>3209</v>
@@ -2245,25 +2287,25 @@
         <v>3461341</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>6411</v>
       </c>
       <c r="N20" s="7">
-        <v>6880735</v>
+        <v>6880736</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>111</v>
@@ -2308,7 +2350,7 @@
         <v>6504</v>
       </c>
       <c r="N21" s="7">
-        <v>6980910</v>
+        <v>6980911</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2343,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B9D2C3-9DB8-4588-9D9E-7E29125F5B1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41243CE5-3277-4A47-8F86-F8013E46B0C9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,10 +2682,10 @@
         <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -2652,13 +2694,13 @@
         <v>22381</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,10 +2715,10 @@
         <v>556146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2688,13 +2730,13 @@
         <v>539206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
         <v>1068</v>
@@ -2703,13 +2745,13 @@
         <v>1095352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2807,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2777,13 +2819,13 @@
         <v>3299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2792,13 +2834,13 @@
         <v>39926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -2807,13 +2849,13 @@
         <v>43225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2870,13 @@
         <v>1019132</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -2843,13 +2885,13 @@
         <v>1002987</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1889</v>
@@ -2858,13 +2900,13 @@
         <v>2022119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2962,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2932,13 +2974,13 @@
         <v>2026</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2947,13 +2989,13 @@
         <v>25340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2965,10 +3007,10 @@
         <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +3025,10 @@
         <v>757526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2998,13 +3040,13 @@
         <v>759671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -3013,13 +3055,13 @@
         <v>1517198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3117,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3087,13 +3129,13 @@
         <v>5536</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3102,13 +3144,13 @@
         <v>34236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -3117,13 +3159,13 @@
         <v>39772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3180,13 @@
         <v>932031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>928</v>
@@ -3153,13 +3195,13 @@
         <v>1009543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>1855</v>
@@ -3168,13 +3210,13 @@
         <v>1941574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3284,13 @@
         <v>14048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -3257,13 +3299,13 @@
         <v>125068</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -3272,13 +3314,13 @@
         <v>139116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3335,13 @@
         <v>3380302</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>3223</v>
@@ -3308,13 +3350,13 @@
         <v>3419474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>6441</v>
@@ -3323,13 +3365,13 @@
         <v>6799776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096C667C-BFA0-4E46-BD78-9B2041A7051F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F17CD70-5724-4ABD-8DB8-E5895FCF6514}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3423,7 +3465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3545,13 +3587,13 @@
         <v>3345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3560,13 +3602,13 @@
         <v>3345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3626,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3596,13 +3638,13 @@
         <v>127388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
@@ -3611,13 +3653,13 @@
         <v>229370</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3727,13 @@
         <v>4338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -3700,13 +3742,13 @@
         <v>20646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3715,13 +3757,13 @@
         <v>24984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3778,13 @@
         <v>545485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>951</v>
@@ -3751,13 +3793,13 @@
         <v>569390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>1559</v>
@@ -3766,13 +3808,13 @@
         <v>1114875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3870,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3840,13 +3882,13 @@
         <v>1774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3855,13 +3897,13 @@
         <v>48058</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3870,13 +3912,13 @@
         <v>49832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,10 +3933,10 @@
         <v>1036158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3906,28 +3948,28 @@
         <v>1007051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>2390</v>
       </c>
       <c r="N11" s="7">
-        <v>2043209</v>
+        <v>2043210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +4011,7 @@
         <v>2472</v>
       </c>
       <c r="N12" s="7">
-        <v>2093041</v>
+        <v>2093042</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -3983,7 +4025,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3995,13 +4037,13 @@
         <v>3790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4010,13 +4052,13 @@
         <v>26881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4025,13 +4067,13 @@
         <v>30671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4088,13 @@
         <v>722002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
@@ -4061,13 +4103,13 @@
         <v>843347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -4076,13 +4118,13 @@
         <v>1565349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,7 +4180,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4150,13 +4192,13 @@
         <v>4930</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4165,13 +4207,13 @@
         <v>55651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -4180,13 +4222,13 @@
         <v>60581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4243,13 @@
         <v>957436</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="H17" s="7">
         <v>1467</v>
@@ -4216,13 +4258,13 @@
         <v>1088373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>2463</v>
@@ -4231,13 +4273,13 @@
         <v>2045809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4347,13 @@
         <v>14831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -4320,13 +4362,13 @@
         <v>154582</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -4335,13 +4377,13 @@
         <v>169413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4398,13 @@
         <v>3363065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>5079</v>
@@ -4371,13 +4413,13 @@
         <v>3635548</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>8431</v>
@@ -4386,13 +4428,13 @@
         <v>6998612</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73844159-4190-40A5-81F8-6B71CACFAEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB58164E-6140-48F8-8B46-CD54B975D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FB264B3-FD44-4AD3-95BB-1DC0FD587494}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43ED5F85-36CD-42A4-802A-3D364F7AE361}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,19 +85,19 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,802 +115,748 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50725D7A-CDAE-494D-9ED6-93C9E5AC27F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C8A509-30B0-4DC5-979F-555901446FCC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1634,10 +1580,10 @@
         <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,10 +1598,10 @@
         <v>586633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1667,13 +1613,13 @@
         <v>565502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>1083</v>
@@ -1682,13 +1628,13 @@
         <v>1152136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,7 +1690,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1756,13 +1702,13 @@
         <v>3256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -1771,13 +1717,13 @@
         <v>20806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -1786,13 +1732,13 @@
         <v>24062</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1753,13 @@
         <v>1014691</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
@@ -1822,13 +1768,13 @@
         <v>1008167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1852</v>
@@ -1837,13 +1783,13 @@
         <v>2022858</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,7 +1845,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1911,13 +1857,13 @@
         <v>1041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1926,13 +1872,13 @@
         <v>16519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -1941,13 +1887,13 @@
         <v>17560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,10 +1908,10 @@
         <v>756582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1977,13 +1923,13 @@
         <v>760655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -1992,13 +1938,13 @@
         <v>1517237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2000,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2066,13 +2012,13 @@
         <v>2017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2081,13 +2027,13 @@
         <v>31559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -2096,13 +2042,13 @@
         <v>33575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,10 +2063,10 @@
         <v>945722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -2132,13 +2078,13 @@
         <v>1019375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>1880</v>
@@ -2147,13 +2093,13 @@
         <v>1965099</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2167,13 @@
         <v>7384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -2236,13 +2182,13 @@
         <v>92791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2251,13 +2197,13 @@
         <v>100175</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2218,13 @@
         <v>3419395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>3209</v>
@@ -2287,28 +2233,28 @@
         <v>3461341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>6411</v>
       </c>
       <c r="N20" s="7">
-        <v>6880736</v>
+        <v>6880735</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,7 +2296,7 @@
         <v>6504</v>
       </c>
       <c r="N21" s="7">
-        <v>6980911</v>
+        <v>6980910</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2385,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41243CE5-3277-4A47-8F86-F8013E46B0C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB5BBB-0798-4AD3-95F5-040DE5B171F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2807,7 +2753,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2819,10 +2765,10 @@
         <v>3299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>146</v>
@@ -2849,13 +2795,13 @@
         <v>43225</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2816,13 @@
         <v>1019132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -2885,13 +2831,13 @@
         <v>1002987</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1889</v>
@@ -2900,13 +2846,13 @@
         <v>2022119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,7 +2908,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2974,13 +2920,13 @@
         <v>2026</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2989,13 +2935,13 @@
         <v>25340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3007,10 +2953,10 @@
         <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,10 +2971,10 @@
         <v>757526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3040,13 +2986,13 @@
         <v>759671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -3055,13 +3001,13 @@
         <v>1517198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3063,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3129,13 +3075,13 @@
         <v>5536</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3144,13 +3090,13 @@
         <v>34236</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -3159,13 +3105,13 @@
         <v>39772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3126,13 @@
         <v>932031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>928</v>
@@ -3195,13 +3141,13 @@
         <v>1009543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>1855</v>
@@ -3210,13 +3156,13 @@
         <v>1941574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3230,13 @@
         <v>14048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -3299,13 +3245,13 @@
         <v>125068</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -3317,10 +3263,10 @@
         <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3281,13 @@
         <v>3380302</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>3223</v>
@@ -3350,13 +3296,13 @@
         <v>3419474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>6441</v>
@@ -3368,10 +3314,10 @@
         <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,7 +3394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F17CD70-5724-4ABD-8DB8-E5895FCF6514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F9D67-2322-49DE-B113-D7F274043199}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3465,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3578,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3587,13 +3533,13 @@
         <v>3345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3602,13 +3548,13 @@
         <v>3345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3572,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3638,13 +3584,13 @@
         <v>127388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
@@ -3653,13 +3599,13 @@
         <v>229370</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3673,13 @@
         <v>4338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -3742,13 +3688,13 @@
         <v>20646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3757,13 +3703,13 @@
         <v>24984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3724,13 @@
         <v>545485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>951</v>
@@ -3793,13 +3739,13 @@
         <v>569390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>1559</v>
@@ -3808,13 +3754,13 @@
         <v>1114875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3816,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3882,13 +3828,13 @@
         <v>1774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3897,13 +3843,13 @@
         <v>48058</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3912,13 +3858,13 @@
         <v>49832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,10 +3879,10 @@
         <v>1036158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3948,13 +3894,13 @@
         <v>1007051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>2390</v>
@@ -3963,13 +3909,13 @@
         <v>2043210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +3971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4037,13 +3983,13 @@
         <v>3790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4052,13 +3998,13 @@
         <v>26881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4067,13 +4013,13 @@
         <v>30671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4034,13 @@
         <v>722002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
@@ -4103,13 +4049,13 @@
         <v>843347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -4118,13 +4064,13 @@
         <v>1565349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4192,13 +4138,13 @@
         <v>4930</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4207,13 +4153,13 @@
         <v>55651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -4222,10 +4168,10 @@
         <v>60581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>132</v>
@@ -4243,13 +4189,13 @@
         <v>957436</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <v>1467</v>
@@ -4258,13 +4204,13 @@
         <v>1088373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>2463</v>
@@ -4273,13 +4219,13 @@
         <v>2045809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4293,13 @@
         <v>14831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -4362,13 +4308,13 @@
         <v>154582</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -4377,13 +4323,13 @@
         <v>169413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4344,13 @@
         <v>3363065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>5079</v>
@@ -4413,13 +4359,13 @@
         <v>3635548</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>8431</v>
@@ -4428,13 +4374,13 @@
         <v>6998612</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB58164E-6140-48F8-8B46-CD54B975D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{850F6E74-E2E2-44A7-915F-8D4E9F101D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43ED5F85-36CD-42A4-802A-3D364F7AE361}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83B8AB24-67D4-4154-8732-4277CF046FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="277">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -88,16 +88,16 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>8,72%</t>
+    <t>9,47%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,7 +115,7 @@
     <t>96,19%</t>
   </si>
   <si>
-    <t>91,28%</t>
+    <t>90,53%</t>
   </si>
   <si>
     <t>99,01%</t>
@@ -124,10 +124,10 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -136,691 +136,703 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>93,93%</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -829,22 +841,22 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -853,10 +865,10 @@
     <t>95,92%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C8A509-30B0-4DC5-979F-555901446FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836D1ABC-B5B3-4B23-BECE-D2781C165E53}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,7 +1905,7 @@
         <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,10 +1920,10 @@
         <v>756582</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1923,13 +1935,13 @@
         <v>760655</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -1938,13 +1950,13 @@
         <v>1517237</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,7 +2012,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2012,13 +2024,13 @@
         <v>2017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -2027,13 +2039,13 @@
         <v>31559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -2042,13 +2054,13 @@
         <v>33575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,10 +2075,10 @@
         <v>945722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -2078,13 +2090,13 @@
         <v>1019375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1880</v>
@@ -2093,13 +2105,13 @@
         <v>1965099</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2179,13 @@
         <v>7384</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -2182,13 +2194,13 @@
         <v>92791</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2197,13 +2209,13 @@
         <v>100175</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2230,13 @@
         <v>3419395</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>3209</v>
@@ -2233,7 +2245,7 @@
         <v>3461341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>108</v>
@@ -2251,10 +2263,10 @@
         <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB5BBB-0798-4AD3-95F5-040DE5B171F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30A1CA-D725-403C-BE7B-EBE2EBF7DD35}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2628,10 +2640,10 @@
         <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -2640,13 +2652,13 @@
         <v>22381</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,10 +2673,10 @@
         <v>556146</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2676,13 +2688,13 @@
         <v>539206</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>1068</v>
@@ -2691,13 +2703,13 @@
         <v>1095352</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2783,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2780,13 +2792,13 @@
         <v>39926</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -2795,13 +2807,13 @@
         <v>43225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2831,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>59</v>
@@ -2831,13 +2843,13 @@
         <v>1002987</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>1889</v>
@@ -2846,10 +2858,10 @@
         <v>2022119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>155</v>
@@ -2926,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2938,7 +2950,7 @@
         <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>158</v>
@@ -2953,7 +2965,7 @@
         <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>159</v>
@@ -2974,7 +2986,7 @@
         <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2992,7 +3004,7 @@
         <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -3007,7 +3019,7 @@
         <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3075,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3078,7 +3090,7 @@
         <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>165</v>
@@ -3096,7 +3108,7 @@
         <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -3105,13 +3117,13 @@
         <v>39772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3138,13 @@
         <v>932031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>928</v>
@@ -3141,13 +3153,13 @@
         <v>1009543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>1855</v>
@@ -3156,13 +3168,13 @@
         <v>1941574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3242,13 @@
         <v>14048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -3245,13 +3257,13 @@
         <v>125068</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -3260,13 +3272,13 @@
         <v>139116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3293,13 @@
         <v>3380302</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>3223</v>
@@ -3296,13 +3308,13 @@
         <v>3419474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>6441</v>
@@ -3311,13 +3323,13 @@
         <v>6799776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,7 +3406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F9D67-2322-49DE-B113-D7F274043199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A088E-66DA-4524-97FF-46A41A9BC5C0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3411,7 +3423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3524,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3533,13 +3545,13 @@
         <v>3345</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3548,13 +3560,13 @@
         <v>3345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3584,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3584,13 +3596,13 @@
         <v>127388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
@@ -3599,13 +3611,13 @@
         <v>229370</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3685,13 @@
         <v>4338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -3688,13 +3700,13 @@
         <v>20646</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3703,13 +3715,13 @@
         <v>24984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3736,13 @@
         <v>545485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>951</v>
@@ -3739,13 +3751,13 @@
         <v>569390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>1559</v>
@@ -3754,13 +3766,13 @@
         <v>1114875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3840,13 @@
         <v>1774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3843,13 +3855,13 @@
         <v>48058</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3858,13 +3870,13 @@
         <v>49832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3891,10 @@
         <v>1036158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3894,28 +3906,28 @@
         <v>1007051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>2390</v>
       </c>
       <c r="N11" s="7">
-        <v>2043210</v>
+        <v>2043209</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,7 +3969,7 @@
         <v>2472</v>
       </c>
       <c r="N12" s="7">
-        <v>2093042</v>
+        <v>2093041</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -3983,13 +3995,13 @@
         <v>3790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3998,10 +4010,10 @@
         <v>26881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>240</v>
@@ -4013,13 +4025,13 @@
         <v>30671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>722002</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
@@ -4049,13 +4061,13 @@
         <v>843347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -4064,13 +4076,13 @@
         <v>1565349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,7 +4138,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4138,13 +4150,13 @@
         <v>4930</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4153,13 +4165,13 @@
         <v>55651</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -4168,13 +4180,13 @@
         <v>60581</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,10 +4204,10 @@
         <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>1467</v>
@@ -4204,13 +4216,13 @@
         <v>1088373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>2463</v>
@@ -4219,13 +4231,13 @@
         <v>2045809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4305,13 @@
         <v>14831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -4308,13 +4320,13 @@
         <v>154582</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>272</v>
@@ -4323,13 +4335,13 @@
         <v>169413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4356,13 @@
         <v>3363065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>5079</v>
@@ -4359,13 +4371,13 @@
         <v>3635548</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>8431</v>
@@ -4374,13 +4386,13 @@
         <v>6998612</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{850F6E74-E2E2-44A7-915F-8D4E9F101D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB7B7E5-4CE4-4866-B208-06BACEA2DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83B8AB24-67D4-4154-8732-4277CF046FD8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{703FBCA8-2B6E-4E17-A2D8-4E921FF5372C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="237">
   <si>
     <t>Población con diagnóstico de fibromialgia en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,561 +67,477 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,15%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de fibromialgia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
     <t>97,64%</t>
   </si>
   <si>
@@ -631,244 +547,208 @@
     <t>Población con diagnóstico de fibromialgia en 2023 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836D1ABC-B5B3-4B23-BECE-D2781C165E53}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFC98BC-105C-486A-B447-592B85D3CB28}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1398,10 +1278,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1413,10 +1293,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>4264</v>
+        <v>23907</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1428,10 +1308,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>4264</v>
+        <v>24978</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1449,10 +1329,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>702398</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1464,10 +1344,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>627</v>
       </c>
       <c r="I5" s="7">
-        <v>107641</v>
+        <v>673143</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1479,10 +1359,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1300</v>
       </c>
       <c r="N5" s="7">
-        <v>223406</v>
+        <v>1375541</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1500,102 +1380,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1071</v>
+        <v>3256</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>19643</v>
+        <v>20806</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>20713</v>
+        <v>24062</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,49 +1484,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>551</v>
+        <v>933</v>
       </c>
       <c r="D8" s="7">
-        <v>586633</v>
+        <v>1014691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>532</v>
+        <v>919</v>
       </c>
       <c r="I8" s="7">
-        <v>565502</v>
+        <v>1008167</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1083</v>
+        <v>1852</v>
       </c>
       <c r="N8" s="7">
-        <v>1152136</v>
+        <v>2022859</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,102 +1535,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3256</v>
+        <v>1041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>20806</v>
+        <v>16519</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>24062</v>
+        <v>17560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,49 +1639,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>933</v>
+        <v>688</v>
       </c>
       <c r="D11" s="7">
-        <v>1014691</v>
+        <v>756582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>919</v>
+        <v>691</v>
       </c>
       <c r="I11" s="7">
-        <v>1008167</v>
+        <v>760655</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1852</v>
+        <v>1379</v>
       </c>
       <c r="N11" s="7">
-        <v>2022858</v>
+        <v>1517237</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,78 +1690,78 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1041</v>
+        <v>2017</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>16519</v>
+        <v>31559</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>69</v>
@@ -1893,10 +1773,10 @@
         <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>17560</v>
+        <v>33575</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>72</v>
@@ -1905,7 +1785,7 @@
         <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,25 +1794,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D14" s="7">
-        <v>756582</v>
+        <v>945722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>691</v>
+        <v>972</v>
       </c>
       <c r="I14" s="7">
-        <v>760655</v>
+        <v>1019375</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -1944,19 +1824,19 @@
         <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>1379</v>
+        <v>1880</v>
       </c>
       <c r="N14" s="7">
-        <v>1517237</v>
+        <v>1965099</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,102 +1845,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1050934</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1998674</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>2017</v>
+        <v>7384</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>31559</v>
+        <v>92791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N16" s="7">
-        <v>33575</v>
+        <v>100175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,49 +1949,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>908</v>
+        <v>3202</v>
       </c>
       <c r="D17" s="7">
-        <v>945722</v>
+        <v>3419395</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>972</v>
+        <v>3209</v>
       </c>
       <c r="I17" s="7">
-        <v>1019375</v>
+        <v>3461341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1880</v>
+        <v>6411</v>
       </c>
       <c r="N17" s="7">
-        <v>1965099</v>
+        <v>6880736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,217 +2000,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1050934</v>
+        <v>3554132</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1998674</v>
+        <v>6980911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7384</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="7">
-        <v>86</v>
-      </c>
-      <c r="I19" s="7">
-        <v>92791</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="7">
-        <v>93</v>
-      </c>
-      <c r="N19" s="7">
-        <v>100175</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3419395</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3461341</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6411</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6880735</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3554132</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980910</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2343,8 +2067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30A1CA-D725-403C-BE7B-EBE2EBF7DD35}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0E00B8-4D09-4FD4-A7EC-CE5118E1AB39}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2360,7 +2084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2461,49 +2185,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1079</v>
+        <v>3187</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>5294</v>
+        <v>25567</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>6373</v>
+        <v>28754</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,49 +2236,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>649</v>
       </c>
       <c r="D5" s="7">
-        <v>115467</v>
+        <v>671613</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>641</v>
       </c>
       <c r="I5" s="7">
-        <v>108066</v>
+        <v>647272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1290</v>
       </c>
       <c r="N5" s="7">
-        <v>223533</v>
+        <v>1318885</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,102 +2287,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2108</v>
+        <v>3299</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>20273</v>
+        <v>39926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>22381</v>
+        <v>43225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,49 +2391,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>537</v>
+        <v>948</v>
       </c>
       <c r="D8" s="7">
-        <v>556146</v>
+        <v>1019132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>531</v>
+        <v>941</v>
       </c>
       <c r="I8" s="7">
-        <v>539206</v>
+        <v>1002987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>1068</v>
+        <v>1889</v>
       </c>
       <c r="N8" s="7">
-        <v>1095352</v>
+        <v>2022119</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,102 +2442,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3299</v>
+        <v>2026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>39926</v>
+        <v>25340</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>43225</v>
+        <v>27365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,49 +2546,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>948</v>
+        <v>694</v>
       </c>
       <c r="D11" s="7">
-        <v>1019132</v>
+        <v>757526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>941</v>
+        <v>713</v>
       </c>
       <c r="I11" s="7">
-        <v>1002987</v>
+        <v>759671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>1889</v>
+        <v>1407</v>
       </c>
       <c r="N11" s="7">
-        <v>2022119</v>
+        <v>1517198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,102 +2597,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>2026</v>
+        <v>5536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>25340</v>
+        <v>34236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>27365</v>
+        <v>39772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2701,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>694</v>
+        <v>927</v>
       </c>
       <c r="D14" s="7">
-        <v>757526</v>
+        <v>932031</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>713</v>
+        <v>928</v>
       </c>
       <c r="I14" s="7">
-        <v>759671</v>
+        <v>1009543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
-        <v>1407</v>
+        <v>1855</v>
       </c>
       <c r="N14" s="7">
-        <v>1517198</v>
+        <v>1941574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,102 +2752,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>5536</v>
+        <v>14048</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>34236</v>
+        <v>125068</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="N16" s="7">
-        <v>39772</v>
+        <v>139116</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,49 +2856,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>927</v>
+        <v>3218</v>
       </c>
       <c r="D17" s="7">
-        <v>932031</v>
+        <v>3380302</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
-        <v>928</v>
+        <v>3223</v>
       </c>
       <c r="I17" s="7">
-        <v>1009543</v>
+        <v>3419474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
-        <v>1855</v>
+        <v>6441</v>
       </c>
       <c r="N17" s="7">
-        <v>1941574</v>
+        <v>6799776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,217 +2907,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7">
-        <v>14048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="7">
-        <v>115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>125068</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="7">
-        <v>128</v>
-      </c>
-      <c r="N19" s="7">
-        <v>139116</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3218</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3380302</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3223</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3419474</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6441</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6799776</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3406,8 +2974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A088E-66DA-4524-97FF-46A41A9BC5C0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F43462-0B68-4D96-85CC-E6F175F818A5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3423,7 +2991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3524,49 +3092,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4236</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>3345</v>
+        <v>22377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>3345</v>
+        <v>26613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,49 +3143,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>726</v>
       </c>
       <c r="D5" s="7">
-        <v>101982</v>
+        <v>631205</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="7">
-        <v>236</v>
+        <v>1187</v>
       </c>
       <c r="I5" s="7">
-        <v>127388</v>
+        <v>650716</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
-        <v>354</v>
+        <v>1913</v>
       </c>
       <c r="N5" s="7">
-        <v>229370</v>
+        <v>1281921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,102 +3194,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1234</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>673093</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1308534</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>4338</v>
+        <v>1698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>20646</v>
+        <v>43891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>24984</v>
+        <v>45589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,49 +3298,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>608</v>
+        <v>961</v>
       </c>
       <c r="D8" s="7">
-        <v>545485</v>
+        <v>1189845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>951</v>
+        <v>1429</v>
       </c>
       <c r="I8" s="7">
-        <v>569390</v>
+        <v>910186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
-        <v>1559</v>
+        <v>2390</v>
       </c>
       <c r="N8" s="7">
-        <v>1114875</v>
+        <v>2100030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,102 +3349,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191543</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>991</v>
+        <v>1509</v>
       </c>
       <c r="I9" s="7">
-        <v>590036</v>
+        <v>954077</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1603</v>
+        <v>2472</v>
       </c>
       <c r="N9" s="7">
-        <v>1139859</v>
+        <v>2145619</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>1774</v>
+        <v>3614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>48058</v>
+        <v>24172</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>49832</v>
+        <v>27786</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +3453,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>961</v>
+        <v>669</v>
       </c>
       <c r="D11" s="7">
-        <v>1036158</v>
+        <v>698386</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>1429</v>
+        <v>996</v>
       </c>
       <c r="I11" s="7">
-        <v>1007051</v>
+        <v>905411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>2390</v>
+        <v>1665</v>
       </c>
       <c r="N11" s="7">
-        <v>2043209</v>
+        <v>1603797</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,102 +3504,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1037932</v>
+        <v>702000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1509</v>
+        <v>1037</v>
       </c>
       <c r="I12" s="7">
-        <v>1055109</v>
+        <v>929583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2472</v>
+        <v>1710</v>
       </c>
       <c r="N12" s="7">
-        <v>2093041</v>
+        <v>1631583</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>3790</v>
+        <v>4757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>26881</v>
+        <v>49170</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N13" s="7">
-        <v>30671</v>
+        <v>53928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +3608,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>669</v>
+        <v>996</v>
       </c>
       <c r="D14" s="7">
-        <v>722002</v>
+        <v>919200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
-        <v>996</v>
+        <v>1467</v>
       </c>
       <c r="I14" s="7">
-        <v>843347</v>
+        <v>1040053</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
-        <v>1665</v>
+        <v>2463</v>
       </c>
       <c r="N14" s="7">
-        <v>1565349</v>
+        <v>1959251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,102 +3659,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1002</v>
       </c>
       <c r="D15" s="7">
-        <v>725792</v>
+        <v>923957</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1037</v>
+        <v>1555</v>
       </c>
       <c r="I15" s="7">
-        <v>870228</v>
+        <v>1089223</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1710</v>
+        <v>2557</v>
       </c>
       <c r="N15" s="7">
-        <v>1596020</v>
+        <v>2013179</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>4930</v>
+        <v>14305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="I16" s="7">
-        <v>55651</v>
+        <v>139611</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="N16" s="7">
-        <v>60581</v>
+        <v>153915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +3763,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>996</v>
+        <v>3352</v>
       </c>
       <c r="D17" s="7">
-        <v>957436</v>
+        <v>3438636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
-        <v>1467</v>
+        <v>5079</v>
       </c>
       <c r="I17" s="7">
-        <v>1088373</v>
+        <v>3506364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
-        <v>2463</v>
+        <v>8431</v>
       </c>
       <c r="N17" s="7">
-        <v>2045809</v>
+        <v>6945001</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,217 +3814,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1002</v>
+        <v>3368</v>
       </c>
       <c r="D18" s="7">
-        <v>962366</v>
+        <v>3452941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1555</v>
+        <v>5335</v>
       </c>
       <c r="I18" s="7">
-        <v>1144024</v>
+        <v>3645975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2557</v>
+        <v>8703</v>
       </c>
       <c r="N18" s="7">
-        <v>2106390</v>
+        <v>7098916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7">
-        <v>14831</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H19" s="7">
-        <v>256</v>
-      </c>
-      <c r="I19" s="7">
-        <v>154582</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="7">
-        <v>272</v>
-      </c>
-      <c r="N19" s="7">
-        <v>169413</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3352</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3363065</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5079</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3635548</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8431</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6998612</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377896</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5335</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3790130</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8703</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7168025</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
